--- a/data/trans_orig/P26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>230288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208691</v>
+        <v>208767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252478</v>
+        <v>250131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4864573178724987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4408355773061305</v>
+        <v>0.4409965072271438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5333296494589452</v>
+        <v>0.528371445296781</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>226</v>
@@ -765,19 +765,19 @@
         <v>214398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>192974</v>
+        <v>192574</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>235593</v>
+        <v>234632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4706051072086624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4235785469927916</v>
+        <v>0.4227002943362991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5171281831387683</v>
+        <v>0.5150177119271681</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>461</v>
@@ -786,19 +786,19 @@
         <v>444687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>414074</v>
+        <v>415627</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>474319</v>
+        <v>476306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4786832442605048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4457306216603265</v>
+        <v>0.4474022712592394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5105807484019199</v>
+        <v>0.5127195823171999</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>243111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220921</v>
+        <v>223268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264708</v>
+        <v>264632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5135426821275012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4666703505410548</v>
+        <v>0.4716285547032189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5591644226938695</v>
+        <v>0.5590034927728561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -836,19 +836,19 @@
         <v>241182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219987</v>
+        <v>220948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262606</v>
+        <v>263006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5293948927913376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4828718168612316</v>
+        <v>0.4849822880728319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5764214530072082</v>
+        <v>0.5772997056637005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -857,19 +857,19 @@
         <v>484292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>454660</v>
+        <v>452673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>514905</v>
+        <v>513352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5213167557394952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4894192515980801</v>
+        <v>0.4872804176828001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5542693783396735</v>
+        <v>0.5525977287407606</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>234039</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209827</v>
+        <v>208679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258448</v>
+        <v>260773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3361536628647216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3013787252200579</v>
+        <v>0.299729626810638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3712140074281409</v>
+        <v>0.374552060030043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -982,19 +982,19 @@
         <v>243644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220617</v>
+        <v>219570</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269619</v>
+        <v>267791</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4082410159654701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.369659231556016</v>
+        <v>0.3679038102798537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4517650964403122</v>
+        <v>0.4487021103730245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>455</v>
@@ -1003,19 +1003,19 @@
         <v>477682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>443034</v>
+        <v>443454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>515921</v>
+        <v>512220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3694262084599329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3426306492488639</v>
+        <v>0.3429552666956002</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3989994682151689</v>
+        <v>0.3961367257649668</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>462186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437777</v>
+        <v>435452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486398</v>
+        <v>487546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6638463371352784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6287859925718591</v>
+        <v>0.6254479399699571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6986212747799422</v>
+        <v>0.7002703731893621</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -1053,19 +1053,19 @@
         <v>353169</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327194</v>
+        <v>329022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>376196</v>
+        <v>377243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5917589840345299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5482349035596878</v>
+        <v>0.5512978896269755</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6303407684439839</v>
+        <v>0.6320961897201464</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>775</v>
@@ -1074,19 +1074,19 @@
         <v>815356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>777117</v>
+        <v>780818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>850004</v>
+        <v>849584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6305737915400671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6010005317848309</v>
+        <v>0.6038632742350332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6573693507511358</v>
+        <v>0.6570447333043998</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>139836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118590</v>
+        <v>118501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160930</v>
+        <v>160877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.231615037571061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1964257906785864</v>
+        <v>0.1962780945085615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2665539480498241</v>
+        <v>0.2664672578051796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>252</v>
@@ -1199,19 +1199,19 @@
         <v>264189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>238776</v>
+        <v>239237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>288886</v>
+        <v>292086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3961910723537926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3580799358523893</v>
+        <v>0.3587723598870668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4332274412934239</v>
+        <v>0.4380266131942117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1220,19 +1220,19 @@
         <v>404025</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>367766</v>
+        <v>371912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437981</v>
+        <v>440276</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3179884493314117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2894509731419691</v>
+        <v>0.2927143784612515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3447138162672733</v>
+        <v>0.3465203345424339</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>463906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>442812</v>
+        <v>442865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>485152</v>
+        <v>485241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7683849624289391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7334460519501759</v>
+        <v>0.7335327421948205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8035742093214137</v>
+        <v>0.8037219054914385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>384</v>
@@ -1270,19 +1270,19 @@
         <v>402633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>377936</v>
+        <v>374736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428046</v>
+        <v>427585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6038089276462073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5667725587065761</v>
+        <v>0.5619733868057878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6419200641476106</v>
+        <v>0.6412276401129331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -1291,19 +1291,19 @@
         <v>866539</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>832583</v>
+        <v>830288</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>902798</v>
+        <v>898652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6820115506685883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6552861837327266</v>
+        <v>0.653479665457566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7105490268580315</v>
+        <v>0.7072856215387484</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>146861</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127072</v>
+        <v>126792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168994</v>
+        <v>172318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3009326208645279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2603841276886594</v>
+        <v>0.2598100088488593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.346286969523335</v>
+        <v>0.3530981153055571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>205</v>
@@ -1416,19 +1416,19 @@
         <v>208349</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184341</v>
+        <v>188574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229012</v>
+        <v>230581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4288490663755354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3794328890876504</v>
+        <v>0.3881445870745506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4713781513495854</v>
+        <v>0.4746092282617848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -1437,19 +1437,19 @@
         <v>355210</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322741</v>
+        <v>323457</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>384808</v>
+        <v>387504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3647474647852973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3314066161639552</v>
+        <v>0.332141342877758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3951402061528493</v>
+        <v>0.3979089674214608</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>341157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>319024</v>
+        <v>315700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360946</v>
+        <v>361226</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.699067379135472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6537130304766651</v>
+        <v>0.646901884694443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7396158723113407</v>
+        <v>0.7401899911511407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1487,19 +1487,19 @@
         <v>277485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256822</v>
+        <v>255253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>301493</v>
+        <v>297260</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5711509336244646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5286218486504147</v>
+        <v>0.5253907717382157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6205671109123496</v>
+        <v>0.6118554129254498</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>594</v>
@@ -1508,19 +1508,19 @@
         <v>618642</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>589044</v>
+        <v>586348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651111</v>
+        <v>650395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6352525352147027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6048597938471506</v>
+        <v>0.6020910325785392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6685933838360448</v>
+        <v>0.667858657122242</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>79234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64566</v>
+        <v>64385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96085</v>
+        <v>96494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2192843914438324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1786899731715778</v>
+        <v>0.1781899974441923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2659209917208119</v>
+        <v>0.2670530414766001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1633,19 +1633,19 @@
         <v>121617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>104336</v>
+        <v>103745</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139859</v>
+        <v>140464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3256297290095732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2793587392922487</v>
+        <v>0.2777760331978182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3744710572584884</v>
+        <v>0.3760918059378173</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -1654,19 +1654,19 @@
         <v>200851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177979</v>
+        <v>178365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226678</v>
+        <v>227162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2733365429384309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.242210097375601</v>
+        <v>0.2427346895497002</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3084836876991002</v>
+        <v>0.309142426061253</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>282096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>265245</v>
+        <v>264836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296764</v>
+        <v>296945</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7807156085561676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7340790082791884</v>
+        <v>0.7329469585234001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8213100268284226</v>
+        <v>0.8218100025558078</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -1704,19 +1704,19 @@
         <v>251867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>233625</v>
+        <v>233020</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269148</v>
+        <v>269739</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6743702709904268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6255289427415116</v>
+        <v>0.6239081940621826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7206412607077513</v>
+        <v>0.7222239668021817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>535</v>
@@ -1725,19 +1725,19 @@
         <v>533962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>508135</v>
+        <v>507651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>556834</v>
+        <v>556448</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7266634570615691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6915163123008998</v>
+        <v>0.6908575739387472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.757789902624399</v>
+        <v>0.7572653104502998</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>25206</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17162</v>
+        <v>16587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35820</v>
+        <v>35627</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09639150317674389</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06562756508199409</v>
+        <v>0.06342947309047094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1369771419330295</v>
+        <v>0.1362386453356613</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1850,19 +1850,19 @@
         <v>53492</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41816</v>
+        <v>42058</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66328</v>
+        <v>66368</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.192587845568638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1505504448074101</v>
+        <v>0.1514231439373937</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2388034237988521</v>
+        <v>0.238946939948638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1871,19 +1871,19 @@
         <v>78698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64349</v>
+        <v>64115</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95780</v>
+        <v>95043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1459392903372475</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1193289750403201</v>
+        <v>0.1188954013972209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1776159439192203</v>
+        <v>0.176248618178441</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>236295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225681</v>
+        <v>225874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244339</v>
+        <v>244914</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9036084968232561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8630228580669705</v>
+        <v>0.8637613546643387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9343724349180059</v>
+        <v>0.936570526909529</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>242</v>
@@ -1921,19 +1921,19 @@
         <v>224261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211425</v>
+        <v>211385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>235937</v>
+        <v>235695</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8074121544313619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.761196576201148</v>
+        <v>0.7610530600513624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8494495551925898</v>
+        <v>0.8485768560626066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -1942,19 +1942,19 @@
         <v>460556</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>443474</v>
+        <v>444211</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>474905</v>
+        <v>475139</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8540607096627525</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8223840560807797</v>
+        <v>0.823751381821559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8806710249596799</v>
+        <v>0.8811045986027792</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>18422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11335</v>
+        <v>11975</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28902</v>
+        <v>29109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1098792992425913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06760716444262185</v>
+        <v>0.07142943173805569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1723934228543307</v>
+        <v>0.1736286954379031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2067,19 +2067,19 @@
         <v>41140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30571</v>
+        <v>29250</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54547</v>
+        <v>54021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1742462495877564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.129482147321051</v>
+        <v>0.1238887215183938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2310313495622764</v>
+        <v>0.2288058796094541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2088,19 +2088,19 @@
         <v>59561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44867</v>
+        <v>44467</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73828</v>
+        <v>74889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1475188462927344</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1111238621851702</v>
+        <v>0.1101326789842585</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1828541828649902</v>
+        <v>0.1854827815247108</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>149231</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>138751</v>
+        <v>138544</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>156318</v>
+        <v>155678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8901207007574087</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8276065771456692</v>
+        <v>0.8263713045620967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9323928355573781</v>
+        <v>0.9285705682619442</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -2138,19 +2138,19 @@
         <v>194961</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181554</v>
+        <v>182080</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>205530</v>
+        <v>206851</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8257537504122436</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7689686504377236</v>
+        <v>0.7711941203905458</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.870517852678949</v>
+        <v>0.8761112784816062</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>329</v>
@@ -2159,19 +2159,19 @@
         <v>344193</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>329926</v>
+        <v>328865</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>358887</v>
+        <v>359287</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8524811537072656</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8171458171350098</v>
+        <v>0.814517218475289</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8888761378148298</v>
+        <v>0.8898673210157414</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>873885</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2863444452436598</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1124</v>
@@ -2284,19 +2284,19 @@
         <v>1146829</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3708556685110074</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1980</v>
@@ -2305,19 +2305,19 @@
         <v>2020714</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.328878730484034</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2177981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2125653</v>
+        <v>2120294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2226077</v>
+        <v>2225551</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7136555547563402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6965093232348978</v>
+        <v>0.6947532973840556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7294151949455991</v>
+        <v>0.7292425588317967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1898</v>
@@ -2355,19 +2355,19 @@
         <v>1945558</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1890442</v>
+        <v>1894364</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2001328</v>
+        <v>1999471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6291443314889926</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6113212578191196</v>
+        <v>0.6125895128368453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6471789449176214</v>
+        <v>0.6465785639041011</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4041</v>
@@ -2376,19 +2376,19 @@
         <v>4123539</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4048364</v>
+        <v>4048919</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4193257</v>
+        <v>4193363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.671121269515966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6588862731502828</v>
+        <v>0.6589766319602531</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6824682302563996</v>
+        <v>0.6824854538741422</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>235030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212145</v>
+        <v>213132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>255280</v>
+        <v>256598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.525629078778398</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4744468601572247</v>
+        <v>0.4766557110318076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.570916289333177</v>
+        <v>0.5738643149035692</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>216</v>
@@ -2744,19 +2744,19 @@
         <v>218595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197963</v>
+        <v>198913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239503</v>
+        <v>238135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5182426025940352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4693296251342623</v>
+        <v>0.4715824229529007</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5678112844250985</v>
+        <v>0.5645684129637244</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>448</v>
@@ -2765,19 +2765,19 @@
         <v>453625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>423134</v>
+        <v>427056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482314</v>
+        <v>484277</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5220435474541331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.48695409193498</v>
+        <v>0.4914680415167593</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5550604286627651</v>
+        <v>0.5573192849425124</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>212111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>191861</v>
+        <v>190543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234996</v>
+        <v>234009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.474370921221602</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.429083710666823</v>
+        <v>0.4261356850964309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5255531398427752</v>
+        <v>0.5233442889681923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>198</v>
@@ -2815,19 +2815,19 @@
         <v>203205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182297</v>
+        <v>183665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223837</v>
+        <v>222887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4817573974059648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4321887155749015</v>
+        <v>0.4354315870362755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5306703748657375</v>
+        <v>0.5284175770470992</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>405</v>
@@ -2836,19 +2836,19 @@
         <v>415315</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>386626</v>
+        <v>384663</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>445806</v>
+        <v>441884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4779564525458669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4449395713372349</v>
+        <v>0.4426807150574873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5130459080650197</v>
+        <v>0.5085319584832407</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>253469</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>229445</v>
+        <v>227781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280103</v>
+        <v>279320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3865944152601702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3499530938236639</v>
+        <v>0.3474151196741697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4272168496720086</v>
+        <v>0.4260219720325629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>229</v>
@@ -2961,19 +2961,19 @@
         <v>240131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216617</v>
+        <v>216225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265951</v>
+        <v>265321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4034785262149281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3639687197251157</v>
+        <v>0.3633095902750536</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4468622750467718</v>
+        <v>0.4458030225791196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>473</v>
@@ -2982,19 +2982,19 @@
         <v>493601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461233</v>
+        <v>459368</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>528403</v>
+        <v>530528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3946281775513043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3687508042292129</v>
+        <v>0.3672593682900164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4224521551934561</v>
+        <v>0.4241510562846015</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>402177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>375543</v>
+        <v>376326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>426201</v>
+        <v>427865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6134055847398298</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5727831503279913</v>
+        <v>0.5739780279674372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6500469061763361</v>
+        <v>0.6525848803258305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>328</v>
@@ -3032,19 +3032,19 @@
         <v>355022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>329202</v>
+        <v>329832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378536</v>
+        <v>378928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5965214737850719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5531377249532283</v>
+        <v>0.5541969774208804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6360312802748843</v>
+        <v>0.6366904097249464</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>722</v>
@@ -3053,19 +3053,19 @@
         <v>757198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>722396</v>
+        <v>720271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>789566</v>
+        <v>791431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6053718224486957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.577547844806544</v>
+        <v>0.5758489437153985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6312491957707872</v>
+        <v>0.6327406317099836</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>206601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182325</v>
+        <v>184197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>233344</v>
+        <v>231683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3113844992955462</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2747961301316958</v>
+        <v>0.2776182619470083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3516904798847396</v>
+        <v>0.3491875994584052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -3178,19 +3178,19 @@
         <v>277991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251044</v>
+        <v>252116</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>304722</v>
+        <v>305483</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3965186440440517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3580816851191393</v>
+        <v>0.3596103130353873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4346464089313611</v>
+        <v>0.4357314448662221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>464</v>
@@ -3199,19 +3199,19 @@
         <v>484592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>449531</v>
+        <v>451671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>522243</v>
+        <v>526308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3551240784860369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3294302143948659</v>
+        <v>0.3309984385471131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3827157996128863</v>
+        <v>0.3856944629232399</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>456891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430148</v>
+        <v>431809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481167</v>
+        <v>479295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6886155007044538</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6483095201152599</v>
+        <v>0.6508124005415949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7252038698683042</v>
+        <v>0.7223817380529917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -3249,19 +3249,19 @@
         <v>423089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>396358</v>
+        <v>395597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450036</v>
+        <v>448964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6034813559559483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5653535910686388</v>
+        <v>0.5642685551337779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6419183148808606</v>
+        <v>0.6403896869646126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>827</v>
@@ -3270,19 +3270,19 @@
         <v>879980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>842329</v>
+        <v>838264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>915041</v>
+        <v>912901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6448759215139631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6172842003871137</v>
+        <v>0.6143055370767601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6705697856051341</v>
+        <v>0.6690015614528868</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>196191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174365</v>
+        <v>171407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>220744</v>
+        <v>220965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3365945838816093</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2991484866145627</v>
+        <v>0.2940734675268191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3787183426272986</v>
+        <v>0.3790985917937788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -3395,19 +3395,19 @@
         <v>280478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>254229</v>
+        <v>253275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306552</v>
+        <v>306872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4728918863580339</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4286343885228071</v>
+        <v>0.4270261434639559</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5168520522920707</v>
+        <v>0.5173921612930309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>413</v>
@@ -3416,19 +3416,19 @@
         <v>476669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>439281</v>
+        <v>445542</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>512120</v>
+        <v>516015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4053368524245411</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3735440485132671</v>
+        <v>0.3788681354920622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4354827289368041</v>
+        <v>0.4387945423370851</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>386679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362126</v>
+        <v>361905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>408505</v>
+        <v>411463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6634054161183907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6212816573727015</v>
+        <v>0.6209014082062212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7008515133854373</v>
+        <v>0.7059265324731809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>278</v>
@@ -3466,19 +3466,19 @@
         <v>312635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>286561</v>
+        <v>286241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338884</v>
+        <v>339838</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5271081136419661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4831479477079293</v>
+        <v>0.4826078387069691</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5713656114771929</v>
+        <v>0.5729738565360442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>627</v>
@@ -3487,19 +3487,19 @@
         <v>699314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>663863</v>
+        <v>659968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>736702</v>
+        <v>730441</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5946631475754589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5645172710631959</v>
+        <v>0.5612054576629147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6264559514867329</v>
+        <v>0.6211318645079373</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>110063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91621</v>
+        <v>91645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130243</v>
+        <v>129552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2662283511924631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2216193181966346</v>
+        <v>0.2216780860477631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3150405813349509</v>
+        <v>0.3133709589417989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -3612,19 +3612,19 @@
         <v>156070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>136822</v>
+        <v>135358</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178056</v>
+        <v>175612</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3658339443730559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3207169851235359</v>
+        <v>0.3172849821839469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4173692383451294</v>
+        <v>0.4116416551100998</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -3633,19 +3633,19 @@
         <v>266133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239948</v>
+        <v>237906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>298173</v>
+        <v>296288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3168136401648467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.285642991509601</v>
+        <v>0.2832122135542053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3549559375658087</v>
+        <v>0.3527120601349111</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>303352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>283172</v>
+        <v>283863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>321794</v>
+        <v>321770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7337716488075369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6849594186650492</v>
+        <v>0.6866290410582014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7783806818033656</v>
+        <v>0.7783219139522369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -3683,19 +3683,19 @@
         <v>270544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>248558</v>
+        <v>251002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>289792</v>
+        <v>291256</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6341660556269441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5826307616548705</v>
+        <v>0.5883583448898999</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.679283014876464</v>
+        <v>0.6827150178160531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>523</v>
@@ -3704,19 +3704,19 @@
         <v>573896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>541856</v>
+        <v>543741</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>600081</v>
+        <v>602123</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6831863598351533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6450440624341911</v>
+        <v>0.6472879398650887</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7143570084903988</v>
+        <v>0.7167877864457946</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>52793</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40341</v>
+        <v>40363</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68128</v>
+        <v>68481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1817992278921141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1389188277168983</v>
+        <v>0.1389965270444328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2346098945721705</v>
+        <v>0.2358246121157461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -3829,19 +3829,19 @@
         <v>72162</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57585</v>
+        <v>58217</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88348</v>
+        <v>88606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2352086253906061</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1876956238178212</v>
+        <v>0.189755051458584</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2879673332086624</v>
+        <v>0.2888072864600355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -3850,19 +3850,19 @@
         <v>124955</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105730</v>
+        <v>106315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146785</v>
+        <v>145416</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2092376868059559</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1770462454445969</v>
+        <v>0.1780253218220373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2457928776333416</v>
+        <v>0.2435002073855041</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>237597</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222262</v>
+        <v>221909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250049</v>
+        <v>250027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8182007721078859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7653901054278291</v>
+        <v>0.764175387884254</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8610811722831017</v>
+        <v>0.8610034729555672</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>229</v>
@@ -3900,19 +3900,19 @@
         <v>234637</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218451</v>
+        <v>218193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249214</v>
+        <v>248582</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7647913746093939</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7120326667913376</v>
+        <v>0.7111927135399645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8123043761821789</v>
+        <v>0.8102449485414159</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>445</v>
@@ -3921,19 +3921,19 @@
         <v>472235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>450405</v>
+        <v>451774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491460</v>
+        <v>490875</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7907623131940441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7542071223666583</v>
+        <v>0.756499792614496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.822953754555403</v>
+        <v>0.8219746781779627</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>24634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15952</v>
+        <v>15188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35812</v>
+        <v>36223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1082690172704879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07011409295842554</v>
+        <v>0.06675426547159327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1574011820391434</v>
+        <v>0.1592061252438895</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -4046,19 +4046,19 @@
         <v>57029</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43884</v>
+        <v>43735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71951</v>
+        <v>72586</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1792038363648343</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1378974172632343</v>
+        <v>0.1374307660659974</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2260952951742224</v>
+        <v>0.2280887564760618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -4067,19 +4067,19 @@
         <v>81662</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66409</v>
+        <v>65100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101003</v>
+        <v>99531</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1496315915091895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1216820156710876</v>
+        <v>0.1192829636132446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1850699340120644</v>
+        <v>0.1823714932264471</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>202888</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191710</v>
+        <v>191299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>211570</v>
+        <v>212334</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8917309827295121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8425988179608566</v>
+        <v>0.8407938747561104</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9298859070415744</v>
+        <v>0.9332457345284062</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>234</v>
@@ -4117,19 +4117,19 @@
         <v>261205</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>246283</v>
+        <v>245648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274350</v>
+        <v>274499</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8207961636351656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7739047048257777</v>
+        <v>0.7719112435239384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8621025827367657</v>
+        <v>0.8625692339340028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>415</v>
@@ -4138,19 +4138,19 @@
         <v>464095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>444754</v>
+        <v>446226</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>479348</v>
+        <v>480657</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8503684084908105</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8149300659879355</v>
+        <v>0.8176285067735528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8783179843289124</v>
+        <v>0.8807170363867554</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1078781</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3288486952826808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1215</v>
@@ -4263,19 +4263,19 @@
         <v>1302456</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3873137633481952</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2232</v>
@@ -4284,19 +4284,19 @@
         <v>2381237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3584434419315545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2201696</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2149655</v>
+        <v>2146835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2261541</v>
+        <v>2251090</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6711513047173192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6552874655064794</v>
+        <v>0.6544277614087959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6893940416080447</v>
+        <v>0.6862081384553619</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1905</v>
@@ -4334,19 +4334,19 @@
         <v>2060336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1999935</v>
+        <v>2000194</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2117821</v>
+        <v>2121277</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6126862366518049</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5947244990418383</v>
+        <v>0.5948015340236916</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6297804722333897</v>
+        <v>0.63080817880518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3964</v>
@@ -4355,19 +4355,19 @@
         <v>4262033</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4180344</v>
+        <v>4184638</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4349483</v>
+        <v>4343485</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6415565580684455</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6292600181487111</v>
+        <v>0.6299063817664506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6547201684173662</v>
+        <v>0.6538172835337348</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>164435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144726</v>
+        <v>145879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187729</v>
+        <v>187856</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3998013982141123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3518828012928265</v>
+        <v>0.3546854846293678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4564375387185082</v>
+        <v>0.4567481590925015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -4723,19 +4723,19 @@
         <v>139442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122162</v>
+        <v>122622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157790</v>
+        <v>159126</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3654153136267105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3201322512154834</v>
+        <v>0.3213359603197083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4134969165090524</v>
+        <v>0.4169956309914193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -4744,19 +4744,19 @@
         <v>303877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>274754</v>
+        <v>275991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330366</v>
+        <v>332223</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3832521690302425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3465220816333737</v>
+        <v>0.3480818447603696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4166595274811483</v>
+        <v>0.4190016954705248</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>246856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223562</v>
+        <v>223435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266565</v>
+        <v>265412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6001986017858878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5435624612814919</v>
+        <v>0.5432518409074986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6481171987071735</v>
+        <v>0.6453145153706322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>247</v>
@@ -4794,19 +4794,19 @@
         <v>242158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223810</v>
+        <v>222474</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259438</v>
+        <v>258978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6345846863732895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5865030834909476</v>
+        <v>0.5830043690085809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6798677487845165</v>
+        <v>0.6786640396802918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>478</v>
@@ -4815,19 +4815,19 @@
         <v>489014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>462525</v>
+        <v>460668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518137</v>
+        <v>516900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6167478309697576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5833404725188517</v>
+        <v>0.5809983045294751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6534779183666264</v>
+        <v>0.6519181552396304</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>171920</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151942</v>
+        <v>150414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193649</v>
+        <v>195256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3088205692110193</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2729337802372131</v>
+        <v>0.2701883537568182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3478522960550823</v>
+        <v>0.3507391427517885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -4940,19 +4940,19 @@
         <v>191117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>171740</v>
+        <v>171257</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>212371</v>
+        <v>212361</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3537153472941292</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.317852943284911</v>
+        <v>0.3169587762614204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3930531907072085</v>
+        <v>0.3930341702108786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>359</v>
@@ -4961,19 +4961,19 @@
         <v>363037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>331545</v>
+        <v>334432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392672</v>
+        <v>393019</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.330932641304457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3022257614110924</v>
+        <v>0.3048570384592376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3579468213073777</v>
+        <v>0.3582637666345117</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>384779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363050</v>
+        <v>361443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404757</v>
+        <v>406285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6911794307889807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6521477039449177</v>
+        <v>0.6492608572482115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7270662197627871</v>
+        <v>0.7298116462431818</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -5011,19 +5011,19 @@
         <v>349195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327941</v>
+        <v>327951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368572</v>
+        <v>369055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6462846527058708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6069468092927915</v>
+        <v>0.6069658297891214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.682147056715089</v>
+        <v>0.6830412237385796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>730</v>
@@ -5032,19 +5032,19 @@
         <v>733974</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>704339</v>
+        <v>703992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>765466</v>
+        <v>762579</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.669067358695543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6420531786926226</v>
+        <v>0.6417362333654885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6977742385889076</v>
+        <v>0.6951429615407625</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>154025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133573</v>
+        <v>133417</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176456</v>
+        <v>176962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2495571867316159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2164206937925088</v>
+        <v>0.2161677222238233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.285901827557455</v>
+        <v>0.2867204027018953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>180</v>
@@ -5157,19 +5157,19 @@
         <v>174747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153064</v>
+        <v>151696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198931</v>
+        <v>195517</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2716818539320801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2379696835558674</v>
+        <v>0.2358436589381905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3092801421769909</v>
+        <v>0.3039733398811118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -5178,19 +5178,19 @@
         <v>328772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>300416</v>
+        <v>300850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>365307</v>
+        <v>361721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2608478423819528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2383501240996169</v>
+        <v>0.2386947888395023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2898344060926112</v>
+        <v>0.2869893308688186</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>463167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>440736</v>
+        <v>440230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>483619</v>
+        <v>483775</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7504428132683841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7140981724425449</v>
+        <v>0.7132795972981048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7835793062074912</v>
+        <v>0.7838322777761767</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>466</v>
@@ -5228,19 +5228,19 @@
         <v>468459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444275</v>
+        <v>447689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>490142</v>
+        <v>491510</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7283181460679199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6907198578230092</v>
+        <v>0.6960266601188883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7620303164441327</v>
+        <v>0.7641563410618095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>909</v>
@@ -5249,19 +5249,19 @@
         <v>931626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>895091</v>
+        <v>898677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>959982</v>
+        <v>959548</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7391521576180472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7101655939073888</v>
+        <v>0.7130106691311814</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.761649875900383</v>
+        <v>0.761305211160498</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>147914</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>128584</v>
+        <v>128500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172039</v>
+        <v>171731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.24699118386899</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2147128198914076</v>
+        <v>0.2145735058437708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2872755687168975</v>
+        <v>0.2867608360096268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -5374,19 +5374,19 @@
         <v>182786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158171</v>
+        <v>159712</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206152</v>
+        <v>209869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2900761746876141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2510134164005394</v>
+        <v>0.2534585356027836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.327157683193985</v>
+        <v>0.3330565377766005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -5395,19 +5395,19 @@
         <v>330700</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>298783</v>
+        <v>301368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363259</v>
+        <v>365601</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2690817412197355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2431122329196428</v>
+        <v>0.2452155665227341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2955746525427281</v>
+        <v>0.2974801678023331</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>450950</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426825</v>
+        <v>427133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470280</v>
+        <v>470364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7530088161310099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7127244312831026</v>
+        <v>0.713239163990373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7852871801085927</v>
+        <v>0.7854264941562291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>420</v>
@@ -5445,19 +5445,19 @@
         <v>447344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>423978</v>
+        <v>420261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471959</v>
+        <v>470418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.709923825312386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.672842316806015</v>
+        <v>0.6669434622233996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7489865835994608</v>
+        <v>0.7465414643972166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>829</v>
@@ -5466,19 +5466,19 @@
         <v>898294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>865735</v>
+        <v>863393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>930211</v>
+        <v>927626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7309182587802645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7044253474572721</v>
+        <v>0.7025198321976669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7568877670803572</v>
+        <v>0.7547844334772659</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>103296</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84557</v>
+        <v>85089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121073</v>
+        <v>122920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2335596869691271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911896537475336</v>
+        <v>0.1923934261431148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2737550417152966</v>
+        <v>0.2779331474474162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -5591,19 +5591,19 @@
         <v>113340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>92712</v>
+        <v>92513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132835</v>
+        <v>133010</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2494992449039063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2040912719302066</v>
+        <v>0.2036532740098655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2924151595064469</v>
+        <v>0.2928013177640098</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>189</v>
@@ -5612,19 +5612,19 @@
         <v>216635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188068</v>
+        <v>189037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241215</v>
+        <v>241633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2416361620193156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2097723653475549</v>
+        <v>0.2108535284118666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2690528480210365</v>
+        <v>0.2695194952821699</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>338970</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>321193</v>
+        <v>319346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>357709</v>
+        <v>357177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7664403130308729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7262449582847034</v>
+        <v>0.7220668525525837</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8088103462524662</v>
+        <v>0.8076065738568851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>301</v>
@@ -5662,19 +5662,19 @@
         <v>340928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>321433</v>
+        <v>321258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>361556</v>
+        <v>361755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7505007550960937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7075848404935531</v>
+        <v>0.7071986822359903</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7959087280697936</v>
+        <v>0.7963467259901346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>600</v>
@@ -5683,19 +5683,19 @@
         <v>679899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>655319</v>
+        <v>654901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>708466</v>
+        <v>707497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7583638379806844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7309471519789636</v>
+        <v>0.73048050471783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7902276346524451</v>
+        <v>0.7891464715881333</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>38504</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28659</v>
+        <v>27680</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51933</v>
+        <v>51102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1260910686981417</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09385358886506696</v>
+        <v>0.09064695275382287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1700683539524762</v>
+        <v>0.1673479360293628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -5808,19 +5808,19 @@
         <v>44155</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32777</v>
+        <v>31842</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60009</v>
+        <v>58212</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1372440131943012</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1018785588540932</v>
+        <v>0.09897183434692429</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1865252776965601</v>
+        <v>0.1809386550040637</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -5829,19 +5829,19 @@
         <v>82658</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66989</v>
+        <v>66754</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101300</v>
+        <v>102022</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.131813026455618</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1068256335884009</v>
+        <v>0.1064512310741804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1615402987846576</v>
+        <v>0.162691963138888</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>266859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253430</v>
+        <v>254261</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>276704</v>
+        <v>277683</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8739089313018583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8299316460475238</v>
+        <v>0.8326520639706371</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9061464111349328</v>
+        <v>0.9093530472461772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -5879,19 +5879,19 @@
         <v>277568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261714</v>
+        <v>263511</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>288946</v>
+        <v>289881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8627559868056989</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8134747223034393</v>
+        <v>0.8190613449959359</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8981214411459066</v>
+        <v>0.9010281656530758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -5900,19 +5900,19 @@
         <v>544428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525786</v>
+        <v>525064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>560097</v>
+        <v>560332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.868186973544382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8384597012153424</v>
+        <v>0.8373080368611121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.893174366411599</v>
+        <v>0.8935487689258198</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>14694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8957</v>
+        <v>9421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21822</v>
+        <v>22338</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06701521264201366</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04085055665883573</v>
+        <v>0.04296501326571639</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09952233182526363</v>
+        <v>0.101876896550558</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6025,19 +6025,19 @@
         <v>32664</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21303</v>
+        <v>22216</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46099</v>
+        <v>46749</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1046591124633615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06825866208987438</v>
+        <v>0.07118417854526024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1477088167386001</v>
+        <v>0.1497904916896285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -6046,19 +6046,19 @@
         <v>47358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33895</v>
+        <v>34960</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62241</v>
+        <v>62897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08912537940196022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06378801611981863</v>
+        <v>0.06579194186892176</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1171344034041191</v>
+        <v>0.1183694758183782</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>204573</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>197445</v>
+        <v>196929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>210310</v>
+        <v>209846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9329847873579864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9004776681747366</v>
+        <v>0.8981231034494422</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9591494433411643</v>
+        <v>0.9570349867342837</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>209</v>
@@ -6096,19 +6096,19 @@
         <v>279433</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>265998</v>
+        <v>265348</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290794</v>
+        <v>289881</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8953408875366385</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8522911832613999</v>
+        <v>0.8502095083103715</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9317413379101256</v>
+        <v>0.9288158214547397</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>450</v>
@@ -6117,19 +6117,19 @@
         <v>484007</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>469124</v>
+        <v>468468</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>497470</v>
+        <v>496405</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9108746205980398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8828655965958808</v>
+        <v>0.8816305241816219</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9362119838801813</v>
+        <v>0.9342080581310783</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>794787</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2522378595215464</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>844</v>
@@ -6242,19 +6242,19 @@
         <v>878250</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2674871036670893</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1589</v>
@@ -6263,19 +6263,19 @@
         <v>1673037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2600193706007274</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2356155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2301796</v>
+        <v>2306000</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2402732</v>
+        <v>2407651</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7477621404784537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7305102941892495</v>
+        <v>0.7318447324676953</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7625439740944796</v>
+        <v>0.76410511471856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2262</v>
@@ -6313,19 +6313,19 @@
         <v>2405087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2349574</v>
+        <v>2357583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2455299</v>
+        <v>2455854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7325128963329107</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7156055588535196</v>
+        <v>0.7180448962755535</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7478060325901615</v>
+        <v>0.7479749305097827</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4516</v>
@@ -6334,19 +6334,19 @@
         <v>4761242</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4687727</v>
+        <v>4683682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4831241</v>
+        <v>4830539</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7399806293992726</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7285551986867554</v>
+        <v>0.727926412546596</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7508597411542245</v>
+        <v>0.7507505975978552</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>76857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52306</v>
+        <v>53420</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106595</v>
+        <v>105053</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1960419032967841</v>
+        <v>0.1960419032967842</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1334204832804102</v>
+        <v>0.1362621787359649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2718965238942127</v>
+        <v>0.2679628425056736</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -6702,19 +6702,19 @@
         <v>69866</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52809</v>
+        <v>50839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92482</v>
+        <v>91936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1994769745221833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1507781294972197</v>
+        <v>0.1451524606109842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2640507505274533</v>
+        <v>0.2624906363069882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -6723,19 +6723,19 @@
         <v>146722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117195</v>
+        <v>118515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>187033</v>
+        <v>181653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1976627250249558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1578836552210167</v>
+        <v>0.1596626168281673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2519683927390719</v>
+        <v>0.2447210807643343</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>315185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285447</v>
+        <v>286989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>339736</v>
+        <v>338622</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8039580967032157</v>
+        <v>0.8039580967032159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7281034761057873</v>
+        <v>0.7320371574943262</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8665795167195898</v>
+        <v>0.8637378212640349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -6773,19 +6773,19 @@
         <v>280378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257762</v>
+        <v>258308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297435</v>
+        <v>299405</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8005230254778166</v>
+        <v>0.8005230254778165</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7359492494725468</v>
+        <v>0.7375093636930105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.849221870502781</v>
+        <v>0.8548475393890158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -6794,19 +6794,19 @@
         <v>595564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555253</v>
+        <v>560633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625091</v>
+        <v>623771</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8023372749750443</v>
+        <v>0.8023372749750444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7480316072609279</v>
+        <v>0.7552789192356664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8421163447789832</v>
+        <v>0.8403373831718327</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>74490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55305</v>
+        <v>54433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98801</v>
+        <v>97141</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1705554793109803</v>
+        <v>0.1705554793109804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1266293698355823</v>
+        <v>0.1246324678722519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2262201339144734</v>
+        <v>0.2224179234905743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -6919,19 +6919,19 @@
         <v>82369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65776</v>
+        <v>65891</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99810</v>
+        <v>100026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1704932866253031</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1361489308742179</v>
+        <v>0.1363861393852056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2065936188673792</v>
+        <v>0.2070412444825696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -6940,19 +6940,19 @@
         <v>156859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129603</v>
+        <v>131123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184951</v>
+        <v>183084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1705228153425939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1408927865361085</v>
+        <v>0.1425452608844071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2010618664020688</v>
+        <v>0.1990323360337586</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>362259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337948</v>
+        <v>339608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381444</v>
+        <v>382316</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8294445206890196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.773779866085526</v>
+        <v>0.7775820765094259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8733706301644174</v>
+        <v>0.8753675321277481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>370</v>
@@ -6990,19 +6990,19 @@
         <v>400752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383311</v>
+        <v>383095</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417345</v>
+        <v>417230</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8295067133746968</v>
+        <v>0.8295067133746971</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7934063811326206</v>
+        <v>0.7929587555174298</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.863851069125782</v>
+        <v>0.8636138606147943</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>601</v>
@@ -7011,19 +7011,19 @@
         <v>763011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734919</v>
+        <v>736786</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>790267</v>
+        <v>788747</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8294771846574062</v>
+        <v>0.8294771846574061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7989381335979309</v>
+        <v>0.8009676639662403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8591072134638914</v>
+        <v>0.8574547391155926</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>48816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35846</v>
+        <v>36071</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63884</v>
+        <v>64251</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08529901476973215</v>
+        <v>0.08529901476973216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06263600800115794</v>
+        <v>0.06302906314145447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1116280837184435</v>
+        <v>0.1122689965389813</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -7136,19 +7136,19 @@
         <v>84154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69607</v>
+        <v>70415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98011</v>
+        <v>102033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1397022862188607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1155524063834798</v>
+        <v>0.1168936331662664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.162706728696662</v>
+        <v>0.1693820934731798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -7157,19 +7157,19 @@
         <v>132970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115222</v>
+        <v>113915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156303</v>
+        <v>155768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1131973225859553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09808814467939991</v>
+        <v>0.09697527401332784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1330605428570442</v>
+        <v>0.1326048847493472</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>523480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508412</v>
+        <v>508045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536450</v>
+        <v>536225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9147009852302678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8883719162815564</v>
+        <v>0.8877310034610186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9373639919988419</v>
+        <v>0.9369709368585454</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>708</v>
@@ -7207,19 +7207,19 @@
         <v>518227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>504370</v>
+        <v>500348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>532774</v>
+        <v>531966</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8602977137811393</v>
+        <v>0.8602977137811394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8372932713033379</v>
+        <v>0.8306179065268202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8844475936165201</v>
+        <v>0.8831063668337341</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1171</v>
@@ -7228,19 +7228,19 @@
         <v>1041708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1018375</v>
+        <v>1018910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1059456</v>
+        <v>1060763</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8868026774140446</v>
+        <v>0.8868026774140447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8669394571429556</v>
+        <v>0.8673951152506527</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9019118553205998</v>
+        <v>0.903024725986672</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>70100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55505</v>
+        <v>54096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88017</v>
+        <v>87677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1131039698280351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08955662353583461</v>
+        <v>0.08728222118894902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1420128171457609</v>
+        <v>0.1414640560733961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -7353,19 +7353,19 @@
         <v>103377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88903</v>
+        <v>90203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118758</v>
+        <v>119309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.144385212442273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1241692820281606</v>
+        <v>0.1259848041313789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1658679901667496</v>
+        <v>0.1666372860683298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -7374,19 +7374,19 @@
         <v>173477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153276</v>
+        <v>153392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197073</v>
+        <v>198874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1298710296256054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1147477106860205</v>
+        <v>0.114834758679182</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.147535644772073</v>
+        <v>0.1488842754886766</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>549680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>531763</v>
+        <v>532103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>564275</v>
+        <v>565684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8868960301719651</v>
+        <v>0.8868960301719648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8579871828542394</v>
+        <v>0.858535943926604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9104433764641656</v>
+        <v>0.9127177788110511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>945</v>
@@ -7424,19 +7424,19 @@
         <v>612605</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597224</v>
+        <v>596673</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>627079</v>
+        <v>625779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.855614787557727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8341320098332504</v>
+        <v>0.8333627139316702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8758307179718393</v>
+        <v>0.8740151958686208</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1474</v>
@@ -7445,19 +7445,19 @@
         <v>1162286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1138690</v>
+        <v>1136889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1182487</v>
+        <v>1182371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8701289703743945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8524643552279272</v>
+        <v>0.8511157245113236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8852522893139796</v>
+        <v>0.8851652413208181</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>68076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54988</v>
+        <v>55418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84243</v>
+        <v>83542</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1232558287292273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0995607165113149</v>
+        <v>0.10033762765217</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1525280518341983</v>
+        <v>0.1512594870842023</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -7570,19 +7570,19 @@
         <v>70475</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58999</v>
+        <v>58622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83690</v>
+        <v>82096</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1285700277781799</v>
+        <v>0.12857002777818</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1076330552979848</v>
+        <v>0.1069462775936368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1526789013398598</v>
+        <v>0.1497711655943068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>192</v>
@@ -7591,19 +7591,19 @@
         <v>138550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119785</v>
+        <v>120183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159668</v>
+        <v>158660</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1259028695894407</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1088501061070703</v>
+        <v>0.1092121700111487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1450930984098315</v>
+        <v>0.1441764701426437</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>484235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468068</v>
+        <v>468769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497323</v>
+        <v>496893</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8767441712707726</v>
+        <v>0.8767441712707728</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8474719481658021</v>
+        <v>0.8487405129157977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9004392834886851</v>
+        <v>0.89966237234783</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>789</v>
@@ -7641,19 +7641,19 @@
         <v>477670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>464455</v>
+        <v>466049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489146</v>
+        <v>489523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8714299722218202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8473210986601403</v>
+        <v>0.8502288344056931</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8923669447020151</v>
+        <v>0.893053722406363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1319</v>
@@ -7662,19 +7662,19 @@
         <v>961905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>940787</v>
+        <v>941795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>980670</v>
+        <v>980272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8740971304105593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8549069015901681</v>
+        <v>0.8558235298573562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8911498938929298</v>
+        <v>0.8907878299888518</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>24285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16773</v>
+        <v>16587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33108</v>
+        <v>32914</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06710680093784194</v>
+        <v>0.06710680093784192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04634840463096907</v>
+        <v>0.04583524215053808</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09148429195484629</v>
+        <v>0.09094940615460205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -7787,19 +7787,19 @@
         <v>36151</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28846</v>
+        <v>27907</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45397</v>
+        <v>45165</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09891619586576281</v>
+        <v>0.09891619586576278</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07892618775190528</v>
+        <v>0.07635717693598017</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1242148396685468</v>
+        <v>0.1235793971441729</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -7808,19 +7808,19 @@
         <v>60437</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49071</v>
+        <v>48900</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72620</v>
+        <v>72820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08308982908803536</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06746362302133559</v>
+        <v>0.06722842518076055</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09983987375849433</v>
+        <v>0.1001143017505733</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>337608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>328785</v>
+        <v>328979</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>345120</v>
+        <v>345306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.932893199062158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9085157080451537</v>
+        <v>0.909050593845398</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9536515953690311</v>
+        <v>0.954164757849462</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>623</v>
@@ -7858,19 +7858,19 @@
         <v>329324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320078</v>
+        <v>320310</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336629</v>
+        <v>337568</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9010838041342372</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.875785160331453</v>
+        <v>0.8764206028558272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9210738122480945</v>
+        <v>0.92364282306402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1096</v>
@@ -7879,19 +7879,19 @@
         <v>666931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>654748</v>
+        <v>654548</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>678297</v>
+        <v>678468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9169101709119645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9001601262415053</v>
+        <v>0.8998856982494263</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9325363769786645</v>
+        <v>0.9327715748192391</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>3764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1163</v>
+        <v>1414</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9014</v>
+        <v>9420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0142520822282304</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004404980287877641</v>
+        <v>0.005355341967623798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03412917247186767</v>
+        <v>0.03566828817356717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -8004,19 +8004,19 @@
         <v>21188</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14537</v>
+        <v>15214</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29298</v>
+        <v>29814</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06160171093484727</v>
+        <v>0.06160171093484725</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04226390738797802</v>
+        <v>0.04423246665530851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08518073302928136</v>
+        <v>0.08668065884928436</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -8025,19 +8025,19 @@
         <v>24952</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17607</v>
+        <v>18328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33809</v>
+        <v>34638</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04103596330091757</v>
+        <v>0.04103596330091758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02895561165441828</v>
+        <v>0.03014166130881107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05560192321427302</v>
+        <v>0.05696581299154176</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>260337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>255087</v>
+        <v>254681</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>262938</v>
+        <v>262687</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9857479177717697</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9658708275281324</v>
+        <v>0.9643317118264346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9955950197121224</v>
+        <v>0.9946446580323766</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>620</v>
@@ -8075,19 +8075,19 @@
         <v>322765</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>314655</v>
+        <v>314139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329416</v>
+        <v>328739</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9383982890651528</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9148192669707185</v>
+        <v>0.9133193411507156</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9577360926120222</v>
+        <v>0.9557675333446913</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1009</v>
@@ -8096,19 +8096,19 @@
         <v>583103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>574246</v>
+        <v>573417</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>590448</v>
+        <v>589727</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9589640366990823</v>
+        <v>0.9589640366990824</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9443980767857268</v>
+        <v>0.9430341870084583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9710443883455818</v>
+        <v>0.9698583386911888</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>366387</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1145256951120826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>605</v>
@@ -8221,19 +8221,19 @@
         <v>467580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1371484006573216</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>901</v>
@@ -8242,19 +8242,19 @@
         <v>833968</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1261967153310385</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2832785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2792003</v>
+        <v>2788261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2882173</v>
+        <v>2875566</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8854743048879172</v>
+        <v>0.8854743048879173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8727267319712562</v>
+        <v>0.8715570300744283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9009122720361215</v>
+        <v>0.8988468775552138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4216</v>
@@ -8292,19 +8292,19 @@
         <v>2941722</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2902801</v>
+        <v>2902095</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2980561</v>
+        <v>2980620</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8628515993426784</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8514355925372833</v>
+        <v>0.8512283646654829</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8742436537934616</v>
+        <v>0.8742610782091577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6967</v>
@@ -8313,19 +8313,19 @@
         <v>5774506</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5710172</v>
+        <v>5710179</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5826308</v>
+        <v>5827815</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8738032846689615</v>
+        <v>0.8738032846689616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.86406821399796</v>
+        <v>0.8640692246855459</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8816418941893849</v>
+        <v>0.8818699473681045</v>
       </c>
     </row>
     <row r="27">
